--- a/trunk/Resultados_Evaluacion_cmmi.xlsx
+++ b/trunk/Resultados_Evaluacion_cmmi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="10">
   <si>
     <t>Area Proceso</t>
   </si>
@@ -96,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -119,12 +119,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,15 +264,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,9 +307,18 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
-              <a:t>PMC</a:t>
+              <a:rPr lang="es-PE" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" algn="tr" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Project Monitoring and Control </a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -187,7 +326,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43376311537700124"/>
+          <c:x val="0.13195471004080694"/>
           <c:y val="7.2632944228274973E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -208,7 +347,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15012459209022236"/>
+                  <c:x val="-0.15012459209022239"/>
                   <c:y val="4.5143948446132946E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -218,8 +357,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18633229240505519"/>
-                  <c:y val="-0.14930563640634414"/>
+                  <c:x val="0.18633229240505522"/>
+                  <c:y val="-0.14930563640634417"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -243,7 +382,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$G$31:$G$32</c:f>
+              <c:f>Hoja1!$G$35:$G$36</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -257,7 +396,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$31:$H$32</c:f>
+              <c:f>Hoja1!$H$35:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -281,7 +420,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -301,9 +440,18 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
-              <a:t>REQM</a:t>
+              <a:rPr lang="es-PE" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" algn="tr" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Requirements Management </a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -319,9 +467,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4552845528455281E-2"/>
-          <c:y val="0.12266666666666666"/>
-          <c:w val="0.63294462582421096"/>
+          <c:x val="8.4552845528455323E-2"/>
+          <c:y val="0.12266666666666667"/>
+          <c:w val="0.63294462582421107"/>
           <c:h val="0.80800000000000005"/>
         </c:manualLayout>
       </c:layout>
@@ -335,8 +483,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1263962614429294"/>
-                  <c:y val="0.12042498687664042"/>
+                  <c:x val="-0.12639626144292943"/>
+                  <c:y val="0.12042498687664044"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -345,7 +493,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.1717810639523718"/>
+                  <c:x val="0.17178106395237183"/>
                   <c:y val="-0.28379254593175851"/>
                 </c:manualLayout>
               </c:layout>
@@ -370,7 +518,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$G$41:$G$42</c:f>
+              <c:f>Hoja1!$G$45:$G$46</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -384,7 +532,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$41:$H$42</c:f>
+              <c:f>Hoja1!$H$45:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -393,6 +541,139 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-PE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" algn="tr" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Project Planning </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28096300901805377"/>
+          <c:y val="7.7220108521613928E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22281348400440945"/>
+                  <c:y val="-6.3661392458939578E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18524283220753843"/>
+                  <c:y val="-6.3661392458939578E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$G$19:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SI CUMPLE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NO CUMPLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$19:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,13 +701,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -450,13 +731,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -471,6 +752,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -764,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -805,7 +1116,9 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
@@ -817,7 +1130,9 @@
       <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
@@ -829,7 +1144,9 @@
       <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
@@ -841,7 +1158,9 @@
       <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1"/>
@@ -858,7 +1177,9 @@
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
@@ -870,7 +1191,9 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
@@ -882,7 +1205,9 @@
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
@@ -894,7 +1219,9 @@
       <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
@@ -906,7 +1233,9 @@
       <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
@@ -918,7 +1247,9 @@
       <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
@@ -930,7 +1261,9 @@
       <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
@@ -942,7 +1275,9 @@
       <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
@@ -954,7 +1289,9 @@
       <c r="C16" s="6">
         <v>2</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
@@ -966,63 +1303,71 @@
       <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>2</v>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="18">
+        <f>COUNTIF(D2:D17,"SI CUMPLE")</f>
+        <v>7</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="20">
+        <f>F19/F21</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6">
-        <v>4</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="15">
+        <f>COUNTIF(D2:D17,"NO CUMPLE")</f>
+        <v>7</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="22">
+        <f>F20/F21</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25">
+        <v>14</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
@@ -1032,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1046,17 +1391,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24">
-        <f>COUNTIF(D19:D25,"SI CUMPLE")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1067,34 +1405,38 @@
         <v>1</v>
       </c>
       <c r="C25" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <f>COUNTIF(D19:D25,"NO CUMPLE")</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="1"/>
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,20 +1444,20 @@
         <v>6</v>
       </c>
       <c r="B28" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F28">
-        <f>COUNTIF(D27:D29,"SI CUMPLE")</f>
-        <v>0</v>
+        <f>COUNTIF(D23:D29,"SI CUMPLE")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1123,146 +1465,142 @@
         <v>6</v>
       </c>
       <c r="B29" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="6">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIF(D23:D29,"NO CUMPLE")</f>
         <v>3</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <f>COUNTIF(D27:D29,"NO CUMPLE")</f>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIF(D31:D33,"SI CUMPLE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="10" t="s">
+      <c r="D33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f>COUNTIF(D31:D33,"NO CUMPLE")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="12">
-        <f>SUM(F24,F28)</f>
+      <c r="E35" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="18">
+        <f>SUM(F28,F32)</f>
         <v>4</v>
       </c>
-      <c r="G31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="17">
-        <f>F31/F33</f>
+      <c r="G35" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="20">
+        <f>F35/F37</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="12">
-        <f>SUM(F25,F29)</f>
+    <row r="36" spans="1:8">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="15">
+        <f>SUM(F29,F33)</f>
         <v>6</v>
       </c>
-      <c r="G32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="17">
-        <f>F32/F33</f>
+      <c r="G36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="22">
+        <f>F36/F37</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9" t="s">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="15">
+      <c r="E37" s="24"/>
+      <c r="F37" s="25">
         <v>10</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="6">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="6">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6">
-        <v>2</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6">
-        <v>3</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="6">
-        <v>1</v>
-      </c>
-      <c r="C38" s="6">
-        <v>4</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38">
-        <f>COUNTIF(D35:D39,"SI CUMPLE")</f>
-        <v>1</v>
-      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
@@ -1272,117 +1610,181 @@
         <v>1</v>
       </c>
       <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <f>COUNTIF(D39:D43,"SI CUMPLE")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6">
         <v>5</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <f>COUNTIF(D35:D39,"NO CUMPLE")</f>
+      <c r="D43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <f>COUNTIF(D39:D43,"NO CUMPLE")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="D41" s="10" t="s">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="D45" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="12">
-        <f>F38</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="17">
-        <f>F41/F43</f>
+      <c r="E45" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="18">
+        <f>F42</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="20">
+        <f>F45/F47</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="D42" s="10"/>
-      <c r="E42" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="12">
-        <f>F39</f>
+    <row r="46" spans="1:8">
+      <c r="D46" s="21"/>
+      <c r="E46" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="15">
+        <f>F43</f>
         <v>4</v>
       </c>
-      <c r="G42" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="17">
-        <f>F42/F43</f>
+      <c r="G46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="22">
+        <f>F46/F47</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="D43" s="9" t="s">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1">
+      <c r="D47" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="15">
+      <c r="E47" s="24"/>
+      <c r="F47" s="25">
         <v>5</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="17"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="G44" s="15"/>
-    </row>
-    <row r="49" spans="4:8">
-      <c r="D49" s="14" t="s">
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="G48" s="11"/>
+    </row>
+    <row r="53" spans="4:8">
+      <c r="D53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="14">
-        <f>SUM(F31,F41)</f>
-        <v>5</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="17">
-        <f>F49/F51</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8">
-      <c r="D50" s="14"/>
-      <c r="E50" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="14">
-        <f>SUM(F32+F42)</f>
-        <v>10</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="17">
-        <f>F50/F51</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8">
-      <c r="D51" s="2" t="s">
+      <c r="E53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="10">
+        <f>SUM(F35,F45,F19)</f>
+        <v>12</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="13">
+        <f>F53/F55</f>
+        <v>0.41379310344827586</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="10">
+        <f>SUM(F36,F46,F20)</f>
+        <v>17</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="13">
+        <f>F54/F55</f>
+        <v>0.58620689655172409</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8">
+      <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="2">
-        <v>15</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="16"/>
+      <c r="F55" s="2">
+        <f>SUM(F53:F54)</f>
+        <v>29</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Resultados_Evaluacion_cmmi.xlsx
+++ b/trunk/Resultados_Evaluacion_cmmi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="12">
   <si>
     <t>Area Proceso</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>% SI CUMPLE</t>
+  </si>
+  <si>
+    <t>% NO CUMPLE</t>
   </si>
 </sst>
 </file>
@@ -91,7 +97,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,11 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -283,6 +285,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,7 +339,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13195471004080694"/>
+          <c:x val="0.13195471004080692"/>
           <c:y val="7.2632944228274973E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -347,7 +360,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15012459209022239"/>
+                  <c:x val="-0.15012459209022241"/>
                   <c:y val="4.5143948446132946E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -357,8 +370,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18633229240505522"/>
-                  <c:y val="-0.14930563640634417"/>
+                  <c:x val="0.18633229240505525"/>
+                  <c:y val="-0.14930563640634423"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -420,7 +433,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -467,9 +480,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4552845528455323E-2"/>
-          <c:y val="0.12266666666666667"/>
-          <c:w val="0.63294462582421107"/>
+          <c:x val="8.4552845528455364E-2"/>
+          <c:y val="0.12266666666666669"/>
+          <c:w val="0.63294462582421118"/>
           <c:h val="0.80800000000000005"/>
         </c:manualLayout>
       </c:layout>
@@ -483,8 +496,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12639626144292943"/>
-                  <c:y val="0.12042498687664044"/>
+                  <c:x val="-0.12639626144292945"/>
+                  <c:y val="0.12042498687664047"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -493,7 +506,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17178106395237183"/>
+                  <c:x val="0.17178106395237186"/>
                   <c:y val="-0.28379254593175851"/>
                 </c:manualLayout>
               </c:layout>
@@ -556,7 +569,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -595,8 +608,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28096300901805377"/>
-          <c:y val="7.7220108521613928E-2"/>
+          <c:x val="0.28096300901805382"/>
+          <c:y val="7.7220108521613914E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -616,7 +629,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22281348400440945"/>
+                  <c:x val="-0.22281348400440948"/>
                   <c:y val="-6.3661392458939578E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -626,7 +639,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18524283220753843"/>
+                  <c:x val="0.18524283220753845"/>
                   <c:y val="-6.3661392458939578E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -683,6 +696,420 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-PE"/>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>Cumplimiento</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" baseline="0"/>
+              <a:t> de prácticas por áreas de proceso  </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% SI CUMPLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4554941682013503E-3"/>
+                  <c:y val="-8.2559339525283791E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.3664825046040518E-3"/>
+                  <c:y val="-1.238390092879257E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.3664825046041412E-3"/>
+                  <c:y val="-1.238390092879257E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" i="0" baseline="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$K$54:$M$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PMC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>REQM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$55:$M$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% NO CUMPLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2099447513812154E-2"/>
+                  <c:y val="-8.2559339525283791E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2099447513812154E-2"/>
+                  <c:y val="-2.063983488132095E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9643953345610803E-2"/>
+                  <c:y val="-8.2559339525283791E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" i="0" baseline="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$K$54:$M$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PMC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>REQM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$56:$M$56</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="74936320"/>
+        <c:axId val="74937856"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="74936320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74937856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74937856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74936320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-PE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Cuadro resumen cumplimiento de prácticas</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C0504D">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$G$53:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SI CUMPLE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NO CUMPLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$53:$H$54</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.41379310344827586</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58620689655172409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="101533568"/>
+        <c:axId val="101744640"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="101533568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101744640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101744640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101533568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -730,15 +1157,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -782,6 +1209,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="9 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1073,12 +1560,293 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Angsana New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Cordia New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1090,6 +1858,10 @@
     <col min="6" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45">
@@ -1317,20 +2089,20 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="14">
         <f>COUNTIF(D2:D17,"SI CUMPLE")</f>
         <v>7</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="16">
         <f>F19/F21</f>
         <v>0.5</v>
       </c>
@@ -1339,18 +2111,18 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="D20" s="17"/>
+      <c r="E20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11">
         <f>COUNTIF(D2:D17,"NO CUMPLE")</f>
         <v>7</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="18">
         <f>F20/F21</f>
         <v>0.5</v>
       </c>
@@ -1359,15 +2131,15 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25">
+      <c r="E21" s="20"/>
+      <c r="F21" s="21">
         <v>14</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
@@ -1550,20 +2322,20 @@
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="14">
         <f>SUM(F28,F32)</f>
         <v>4</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="16">
         <f>F35/F37</f>
         <v>0.4</v>
       </c>
@@ -1572,18 +2344,18 @@
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="15">
+      <c r="D36" s="17"/>
+      <c r="E36" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="11">
         <f>SUM(F29,F33)</f>
         <v>6</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="18">
         <f>F36/F37</f>
         <v>0.6</v>
       </c>
@@ -1592,15 +2364,15 @@
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25">
+      <c r="E37" s="20"/>
+      <c r="F37" s="21">
         <v>10</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
@@ -1687,104 +2459,148 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1">
-      <c r="G44" s="11"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="14">
         <f>F42</f>
         <v>1</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="16">
         <f>F45/F47</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="D46" s="21"/>
-      <c r="E46" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="15">
+      <c r="D46" s="17"/>
+      <c r="E46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="11">
         <f>F43</f>
         <v>4</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="18">
         <f>F46/F47</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1">
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25">
+      <c r="E47" s="20"/>
+      <c r="F47" s="21">
         <v>5</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="G48" s="11"/>
-    </row>
-    <row r="53" spans="4:8">
-      <c r="D53" s="10" t="s">
+      <c r="G48" s="9"/>
+    </row>
+    <row r="52" spans="4:13" ht="15.75" thickBot="1"/>
+    <row r="53" spans="4:13">
+      <c r="D53" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="33">
         <f>SUM(F35,F45,F19)</f>
         <v>12</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="16">
         <f>F53/F55</f>
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="54" spans="4:8">
-      <c r="D54" s="10"/>
-      <c r="E54" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="10">
+    <row r="54" spans="4:13">
+      <c r="D54" s="34"/>
+      <c r="E54" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="26">
         <f>SUM(F36,F46,F20)</f>
         <v>17</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="13">
+      <c r="G54" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="18">
         <f>F54/F55</f>
         <v>0.58620689655172409</v>
       </c>
-    </row>
-    <row r="55" spans="4:8">
-      <c r="D55" s="2" t="s">
+      <c r="J54" s="26"/>
+      <c r="K54" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" ht="15.75" thickBot="1">
+      <c r="D55" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="2">
+      <c r="E55" s="22"/>
+      <c r="F55" s="30">
         <f>SUM(F53:F54)</f>
         <v>29</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="12"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31"/>
+      <c r="J55" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="25">
+        <f>H19</f>
+        <v>0.5</v>
+      </c>
+      <c r="L55" s="25">
+        <f>H35</f>
+        <v>0.4</v>
+      </c>
+      <c r="M55" s="25">
+        <f>H45</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13">
+      <c r="J56" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="25">
+        <f>H20</f>
+        <v>0.5</v>
+      </c>
+      <c r="L56" s="25">
+        <f>H36</f>
+        <v>0.6</v>
+      </c>
+      <c r="M56" s="25">
+        <f>H46</f>
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Resultados_Evaluacion_cmmi.xlsx
+++ b/trunk/Resultados_Evaluacion_cmmi.xlsx
@@ -329,7 +329,7 @@
                   </a:outerShdw>
                 </a:effectLst>
               </a:rPr>
-              <a:t>Project Monitoring and Control </a:t>
+              <a:t>Project Monitoring  and Control </a:t>
             </a:r>
             <a:endParaRPr lang="es-PE"/>
           </a:p>
@@ -339,8 +339,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13195471004080692"/>
-          <c:y val="7.2632944228274973E-2"/>
+          <c:x val="0.17373025499749867"/>
+          <c:y val="7.2633013896518744E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -370,8 +370,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18633229240505525"/>
-                  <c:y val="-0.14930563640634423"/>
+                  <c:x val="0.18633229240505528"/>
+                  <c:y val="-0.14930563640634426"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -414,10 +414,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.23809523809523808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.76190476190476186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,7 +433,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -480,9 +480,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4552845528455364E-2"/>
-          <c:y val="0.12266666666666669"/>
-          <c:w val="0.63294462582421118"/>
+          <c:x val="8.4552845528455392E-2"/>
+          <c:y val="0.1226666666666667"/>
+          <c:w val="0.63294462582421129"/>
           <c:h val="0.80800000000000005"/>
         </c:manualLayout>
       </c:layout>
@@ -496,8 +496,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12639626144292945"/>
-                  <c:y val="0.12042498687664047"/>
+                  <c:x val="-0.12639626144292948"/>
+                  <c:y val="0.12042498687664049"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -506,7 +506,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17178106395237186"/>
+                  <c:x val="0.17178106395237189"/>
                   <c:y val="-0.28379254593175851"/>
                 </c:manualLayout>
               </c:layout>
@@ -550,10 +550,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -569,7 +569,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -609,7 +609,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.28096300901805382"/>
-          <c:y val="7.7220108521613914E-2"/>
+          <c:y val="7.72201085216139E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -629,7 +629,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22281348400440948"/>
+                  <c:x val="-0.22281348400440951"/>
                   <c:y val="-6.3661392458939578E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -639,7 +639,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18524283220753845"/>
+                  <c:x val="0.18524283220753848"/>
                   <c:y val="-6.3661392458939578E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -683,10 +683,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,7 +702,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -740,7 +740,17 @@
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1192944804551359E-2"/>
+          <c:y val="0.23904634888589024"/>
+          <c:w val="0.8917966193452338"/>
+          <c:h val="0.5964810879107646"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -763,8 +773,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.4554941682013503E-3"/>
-                  <c:y val="-8.2559339525283791E-3"/>
+                  <c:x val="2.4554941682013512E-3"/>
+                  <c:y val="-8.2559339525283826E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -773,7 +783,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.3664825046040518E-3"/>
+                  <c:x val="7.3664825046040527E-3"/>
                   <c:y val="-1.238390092879257E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -783,7 +793,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.3664825046041412E-3"/>
+                  <c:x val="7.366482504604142E-3"/>
                   <c:y val="-1.238390092879257E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -825,13 +835,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.23809523809523808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,8 +874,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.2099447513812154E-2"/>
-                  <c:y val="-8.2559339525283791E-3"/>
+                  <c:x val="2.2099447513812164E-2"/>
+                  <c:y val="-8.2559339525283826E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -874,8 +884,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.2099447513812154E-2"/>
-                  <c:y val="-2.063983488132095E-2"/>
+                  <c:x val="2.2099447513812164E-2"/>
+                  <c:y val="-2.0639834881320956E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -884,8 +894,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9643953345610803E-2"/>
-                  <c:y val="-8.2559339525283791E-3"/>
+                  <c:x val="1.9643953345610806E-2"/>
+                  <c:y val="-8.2559339525283826E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -926,38 +936,38 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.76190476190476186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="74936320"/>
-        <c:axId val="74937856"/>
+        <c:axId val="80268288"/>
+        <c:axId val="80270080"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="74936320"/>
+        <c:axId val="80268288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74937856"/>
+        <c:crossAx val="80270080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74937856"/>
+        <c:axId val="80270080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +975,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74936320"/>
+        <c:crossAx val="80268288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -978,7 +988,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1067,35 +1077,35 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.41379310344827586</c:v>
+                  <c:v>0.32258064516129031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58620689655172409</c:v>
+                  <c:v>0.67741935483870963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="101533568"/>
-        <c:axId val="101744640"/>
+        <c:axId val="80782848"/>
+        <c:axId val="80784384"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="101533568"/>
+        <c:axId val="80782848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101744640"/>
+        <c:crossAx val="80784384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101744640"/>
+        <c:axId val="80784384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1113,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101533568"/>
+        <c:crossAx val="80782848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1116,7 +1126,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1845,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1864,7 +1874,7 @@
     <col min="13" max="13" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45">
+    <row r="1" spans="1:6" ht="45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1934,12 +1944,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1953,7 +1963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +1977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1981,7 +1991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +2019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2051,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2063,6 +2073,9 @@
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2077,6 +2090,10 @@
       </c>
       <c r="D17" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="F17">
+        <f>F18-F16</f>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
@@ -2084,6 +2101,9 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
+      <c r="F18">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7"/>
@@ -2096,15 +2116,15 @@
         <v>8</v>
       </c>
       <c r="F19" s="14">
-        <f>COUNTIF(D2:D17,"SI CUMPLE")</f>
-        <v>7</v>
+        <f>COUNTIF(D2:D17,"SI CUMPLE")+F16</f>
+        <v>11</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="16">
         <f>F19/F21</f>
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2116,15 +2136,15 @@
         <v>2</v>
       </c>
       <c r="F20" s="11">
-        <f>COUNTIF(D2:D17,"NO CUMPLE")</f>
-        <v>7</v>
+        <f>COUNTIF(D2:D17,"NO CUMPLE")+F17</f>
+        <v>14</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="18">
         <f>F20/F21</f>
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1">
@@ -2136,7 +2156,8 @@
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="21">
-        <v>14</v>
+        <f>SUM(F19:F20)</f>
+        <v>25</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
@@ -2290,6 +2311,9 @@
         <f>COUNTIF(D31:D33,"SI CUMPLE")</f>
         <v>0</v>
       </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="5" t="s">
@@ -2310,6 +2334,9 @@
       <c r="F33">
         <f>COUNTIF(D31:D33,"NO CUMPLE")</f>
         <v>3</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1">
@@ -2317,6 +2344,9 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="7"/>
+      <c r="G34">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="7"/>
@@ -2329,15 +2359,15 @@
         <v>8</v>
       </c>
       <c r="F35" s="14">
-        <f>SUM(F28,F32)</f>
-        <v>4</v>
+        <f>SUM(F28,F32,G32)</f>
+        <v>5</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="16">
         <f>F35/F37</f>
-        <v>0.4</v>
+        <v>0.23809523809523808</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2349,15 +2379,15 @@
         <v>2</v>
       </c>
       <c r="F36" s="11">
-        <f>SUM(F29,F33)</f>
-        <v>6</v>
+        <f>SUM(F29,F33,G33)</f>
+        <v>16</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H36" s="18">
         <f>F36/F37</f>
-        <v>0.6</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1">
@@ -2369,7 +2399,8 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="21">
-        <v>10</v>
+        <f>SUM(F35:F36)</f>
+        <v>21</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
@@ -2436,6 +2467,9 @@
         <f>COUNTIF(D39:D43,"SI CUMPLE")</f>
         <v>1</v>
       </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
@@ -2457,9 +2491,15 @@
         <f>COUNTIF(D39:D43,"NO CUMPLE")</f>
         <v>4</v>
       </c>
+      <c r="G43">
+        <f>G44-G42</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1">
-      <c r="G44" s="9"/>
+      <c r="G44" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="D45" s="12" t="s">
@@ -2469,15 +2509,15 @@
         <v>8</v>
       </c>
       <c r="F45" s="14">
-        <f>F42</f>
-        <v>1</v>
+        <f>F42+G42</f>
+        <v>4</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="16">
         <f>F45/F47</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2486,15 +2526,15 @@
         <v>2</v>
       </c>
       <c r="F46" s="11">
-        <f>F43</f>
-        <v>4</v>
+        <f>F43+G43</f>
+        <v>12</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H46" s="18">
         <f>F46/F47</f>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1">
@@ -2503,7 +2543,8 @@
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="21">
-        <v>5</v>
+        <f>SUM(F45:F46)</f>
+        <v>16</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
@@ -2521,14 +2562,14 @@
       </c>
       <c r="F53" s="33">
         <f>SUM(F35,F45,F19)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H53" s="16">
         <f>F53/F55</f>
-        <v>0.41379310344827586</v>
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="54" spans="4:13">
@@ -2538,14 +2579,14 @@
       </c>
       <c r="F54" s="26">
         <f>SUM(F36,F46,F20)</f>
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>2</v>
       </c>
       <c r="H54" s="18">
         <f>F54/F55</f>
-        <v>0.58620689655172409</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="J54" s="26"/>
       <c r="K54" s="26" t="s">
@@ -2565,7 +2606,7 @@
       <c r="E55" s="22"/>
       <c r="F55" s="30">
         <f>SUM(F53:F54)</f>
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G55" s="30"/>
       <c r="H55" s="31"/>
@@ -2574,15 +2615,15 @@
       </c>
       <c r="K55" s="25">
         <f>H19</f>
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="L55" s="25">
         <f>H35</f>
-        <v>0.4</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="M55" s="25">
         <f>H45</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="56" spans="4:13">
@@ -2591,15 +2632,15 @@
       </c>
       <c r="K56" s="25">
         <f>H20</f>
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L56" s="25">
         <f>H36</f>
-        <v>0.6</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="M56" s="25">
         <f>H46</f>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
